--- a/Current/おぐべん計算時間比較.xlsx
+++ b/Current/おぐべん計算時間比較.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tukad\source\repos\tukada106\HTSMagneticCloak\Current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5013541\Documents\GitHub\HTSMagneticCloak\Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D91823-4852-4879-BCAA-CEBB8F58ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423FA8C-E8C6-4BCC-9DF9-659C2FB266DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E3145AD-FC38-47A1-9587-9E6493364049}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4E3145AD-FC38-47A1-9587-9E6493364049}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>よーた</t>
     <phoneticPr fontId="1"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>べべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -419,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4744B52A-029E-4654-B0F2-9EB3FBC3D091}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -457,8 +465,14 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>11.301</v>
       </c>
@@ -478,7 +492,7 @@
         <v>5.327</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>11.516</v>
       </c>
@@ -498,7 +512,7 @@
         <v>5.7290000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>11.323</v>
       </c>
@@ -518,7 +532,7 @@
         <v>6.6429999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C6">
         <v>7.3070000000000004</v>
       </c>
